--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2324" documentId="11_E0DBB201481B1C811047287C66E952F5F4A270EB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{7FE51791-560A-48C4-B99B-92C24D31E66C}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="International" sheetId="1" r:id="rId1"/>
@@ -2423,17 +2423,17 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2501,6 +2501,20 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.000%"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000000%"/>
+    </dxf>
+    <dxf>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="medium">
@@ -2513,20 +2527,6 @@
         <vertical/>
         <horizontal/>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="164" formatCode="0.000%"/>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000000%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -8325,7 +8325,7 @@
     <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Serious, Critical" totalsRowFunction="custom" totalsRowDxfId="12">
       <totalsRowFormula>AVERAGE(Table1[Serious, Critical])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Population" totalsRowFunction="custom" dataDxfId="19" totalsRowDxfId="11" dataCellStyle="Hyperlink">
+    <tableColumn id="14" xr3:uid="{00000000-0010-0000-0000-00000E000000}" name="Population" totalsRowFunction="custom" dataDxfId="23" totalsRowDxfId="11" dataCellStyle="Hyperlink">
       <totalsRowFormula>AVERAGE(Table1[Population])</totalsRowFormula>
     </tableColumn>
     <tableColumn id="15" xr3:uid="{00000000-0010-0000-0000-00000F000000}" name="1/# " totalsRowFunction="custom" totalsRowDxfId="10">
@@ -8355,10 +8355,10 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="% Active" totalsRowFunction="custom" totalsRowDxfId="2">
       <totalsRowFormula>AVERAGE(Table1[% Active])</totalsRowFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C5BC61F0-787C-4B13-B094-7F65C2839684}" name="Percent Actively Infected" dataDxfId="23" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{C5BC61F0-787C-4B13-B094-7F65C2839684}" name="Percent Actively Infected" dataDxfId="22" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Percent Infected]]*Table1[[#This Row],[% Active]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C200E07E-202A-4F23-AD30-2B5D0B3475C7}" name="1/# Active" dataDxfId="22" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{C200E07E-202A-4F23-AD30-2B5D0B3475C7}" name="1/# Active" dataDxfId="21" totalsRowDxfId="0">
       <calculatedColumnFormula>1/Table1[[#This Row],[Percent Actively Infected]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8397,10 +8397,10 @@
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Percent Dead"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Percent Ex(Death)"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Cases per Test"/>
-    <tableColumn id="23" xr3:uid="{9B168E7D-9EBA-4A79-8254-0356C277894C}" name="Percent Active Infected" dataDxfId="21">
+    <tableColumn id="23" xr3:uid="{9B168E7D-9EBA-4A79-8254-0356C277894C}" name="Percent Active Infected" dataDxfId="20">
       <calculatedColumnFormula>Table2[[#This Row],[Percent Infected]]*Table2[[#This Row],[% Active]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{6B6B44B4-3DE3-4BD0-979D-79BA94F42EB9}" name="1/# Active" dataDxfId="20">
+    <tableColumn id="24" xr3:uid="{6B6B44B4-3DE3-4BD0-979D-79BA94F42EB9}" name="1/# Active" dataDxfId="19">
       <calculatedColumnFormula>1/Table2[[#This Row],[Percent Active Infected]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -8859,7 +8859,7 @@
         <v>2.8609545043357554E-2</v>
       </c>
       <c r="R2" s="14">
-        <f>G2/D2</f>
+        <f t="shared" ref="R2:R65" si="0">G2/D2</f>
         <v>2.9452157880874439E-2</v>
       </c>
       <c r="S2" s="12">
@@ -8933,7 +8933,7 @@
         <v>0.28093239063190456</v>
       </c>
       <c r="R3" s="14">
-        <f>G3/D3</f>
+        <f t="shared" si="0"/>
         <v>0.39068981410354892</v>
       </c>
       <c r="S3" s="12">
@@ -9007,7 +9007,7 @@
         <v>0.10498561840843712</v>
       </c>
       <c r="R4" s="14">
-        <f>G4/D4</f>
+        <f t="shared" si="0"/>
         <v>0.11730048205677558</v>
       </c>
       <c r="S4" s="12">
@@ -9079,7 +9079,7 @@
         <v>1.4285714285714457E-3</v>
       </c>
       <c r="R5" s="14">
-        <f>G5/D5</f>
+        <f t="shared" si="0"/>
         <v>1.4306151645207439E-3</v>
       </c>
       <c r="S5" s="12">
@@ -9153,7 +9153,7 @@
         <v>6.1445689632872225E-2</v>
       </c>
       <c r="R6" s="14">
-        <f>G6/D6</f>
+        <f t="shared" si="0"/>
         <v>6.5468443279363256E-2</v>
       </c>
       <c r="S6" s="12">
@@ -9227,7 +9227,7 @@
         <v>0.13859112911481264</v>
       </c>
       <c r="R7" s="14">
-        <f>G7/D7</f>
+        <f t="shared" si="0"/>
         <v>0.16088890397935623</v>
       </c>
       <c r="S7" s="12">
@@ -9301,7 +9301,7 @@
         <v>0.25502684014193422</v>
       </c>
       <c r="R8" s="14">
-        <f>G8/D8</f>
+        <f t="shared" si="0"/>
         <v>0.3423302393746947</v>
       </c>
       <c r="S8" s="12">
@@ -9375,7 +9375,7 @@
         <v>0.31690983018416641</v>
       </c>
       <c r="R9" s="14">
-        <f>G9/D9</f>
+        <f t="shared" si="0"/>
         <v>0.46393557422969189</v>
       </c>
       <c r="S9" s="12">
@@ -9449,7 +9449,7 @@
         <v>0.23705999557228252</v>
       </c>
       <c r="R10" s="14">
-        <f>G10/D10</f>
+        <f t="shared" si="0"/>
         <v>0.31071905286982765</v>
       </c>
       <c r="S10" s="12">
@@ -9523,7 +9523,7 @@
         <v>0.3342734406874901</v>
       </c>
       <c r="R11" s="14">
-        <f>G11/D11</f>
+        <f t="shared" si="0"/>
         <v>0.50211822859026611</v>
       </c>
       <c r="S11" s="12">
@@ -9595,7 +9595,7 @@
         <v>2.7624309392265234E-2</v>
       </c>
       <c r="R12" s="14">
-        <f>G12/D12</f>
+        <f t="shared" si="0"/>
         <v>2.8409090909090908E-2</v>
       </c>
       <c r="S12" s="12">
@@ -9669,7 +9669,7 @@
         <v>0.22227674079942739</v>
       </c>
       <c r="R13" s="14">
-        <f>G13/D13</f>
+        <f t="shared" si="0"/>
         <v>0.28580441457788891</v>
       </c>
       <c r="S13" s="12">
@@ -9743,7 +9743,7 @@
         <v>5.2452316076294303E-2</v>
       </c>
       <c r="R14" s="14">
-        <f>G14/D14</f>
+        <f t="shared" si="0"/>
         <v>5.5355859094176854E-2</v>
       </c>
       <c r="S14" s="12">
@@ -9817,7 +9817,7 @@
         <v>0.22777149476868841</v>
       </c>
       <c r="R15" s="14">
-        <f>G15/D15</f>
+        <f t="shared" si="0"/>
         <v>0.29495349268473603</v>
       </c>
       <c r="S15" s="12">
@@ -9891,7 +9891,7 @@
         <v>0.15139629745842476</v>
       </c>
       <c r="R16" s="14">
-        <f>G16/D16</f>
+        <f t="shared" si="0"/>
         <v>0.17840635977075245</v>
       </c>
       <c r="S16" s="12">
@@ -9963,7 +9963,7 @@
         <v>7.3760932944606505E-2</v>
       </c>
       <c r="R17" s="14">
-        <f>G17/D17</f>
+        <f t="shared" si="0"/>
         <v>7.9634875668870009E-2</v>
       </c>
       <c r="S17" s="12">
@@ -10037,7 +10037,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R18" s="14" t="e">
-        <f>G18/D18</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="S18" s="12" t="e">
@@ -10111,7 +10111,7 @@
         <v>0.17240735990298728</v>
       </c>
       <c r="R19" s="14">
-        <f>G19/D19</f>
+        <f t="shared" si="0"/>
         <v>0.20832394048692515</v>
       </c>
       <c r="S19" s="12">
@@ -10185,7 +10185,7 @@
         <v>0.1033512337706477</v>
       </c>
       <c r="R20" s="14">
-        <f>G20/D20</f>
+        <f t="shared" si="0"/>
         <v>0.11526390005003563</v>
       </c>
       <c r="S20" s="12">
@@ -10259,7 +10259,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R21" s="14" t="e">
-        <f>G21/D21</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="S21" s="12" t="e">
@@ -10333,7 +10333,7 @@
         <v>0.11619679897766766</v>
       </c>
       <c r="R22" s="16">
-        <f>G22/D22</f>
+        <f t="shared" si="0"/>
         <v>0.13147361182133976</v>
       </c>
       <c r="S22" s="12">
@@ -10407,7 +10407,7 @@
         <v>0.31411354304440664</v>
       </c>
       <c r="R23" s="14">
-        <f>G23/D23</f>
+        <f t="shared" si="0"/>
         <v>0.45796726245134689</v>
       </c>
       <c r="S23" s="12">
@@ -10479,7 +10479,7 @@
         <v>5.1759834368529933E-3</v>
       </c>
       <c r="R24" s="14">
-        <f>G24/D24</f>
+        <f t="shared" si="0"/>
         <v>5.2029136316337149E-3</v>
       </c>
       <c r="S24" s="12">
@@ -10553,7 +10553,7 @@
         <v>0.36443163278583512</v>
       </c>
       <c r="R25" s="14">
-        <f>G25/D25</f>
+        <f t="shared" si="0"/>
         <v>0.57339485661191514</v>
       </c>
       <c r="S25" s="12">
@@ -10627,7 +10627,7 @@
         <v>0.16076058772687984</v>
       </c>
       <c r="R26" s="14">
-        <f>G26/D26</f>
+        <f t="shared" si="0"/>
         <v>0.19155509783728114</v>
       </c>
       <c r="S26" s="12">
@@ -10697,7 +10697,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R27" s="14">
-        <f>G27/D27</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S27" s="12">
@@ -10771,7 +10771,7 @@
         <v>0.21232212759476576</v>
       </c>
       <c r="R28" s="14">
-        <f>G28/D28</f>
+        <f t="shared" si="0"/>
         <v>0.26955451591705132</v>
       </c>
       <c r="S28" s="12">
@@ -10845,7 +10845,7 @@
         <v>2.3307014880048604E-2</v>
       </c>
       <c r="R29" s="14">
-        <f>G29/D29</f>
+        <f t="shared" si="0"/>
         <v>2.3863194714341236E-2</v>
       </c>
       <c r="S29" s="12">
@@ -10919,7 +10919,7 @@
         <v>0.35676723320050963</v>
       </c>
       <c r="R30" s="14">
-        <f>G30/D30</f>
+        <f t="shared" si="0"/>
         <v>0.5546471691354643</v>
       </c>
       <c r="S30" s="12">
@@ -10993,7 +10993,7 @@
         <v>0.22371212121212114</v>
       </c>
       <c r="R31" s="14">
-        <f>G31/D31</f>
+        <f t="shared" si="0"/>
         <v>0.28818190689958034</v>
       </c>
       <c r="S31" s="12">
@@ -11065,7 +11065,7 @@
         <v>2.6843026648511903E-2</v>
       </c>
       <c r="R32" s="14">
-        <f>G32/D32</f>
+        <f t="shared" si="0"/>
         <v>2.7583449930041973E-2</v>
       </c>
       <c r="S32" s="12">
@@ -11139,7 +11139,7 @@
         <v>0.39199982660149768</v>
       </c>
       <c r="R33" s="14">
-        <f>G33/D33</f>
+        <f t="shared" si="0"/>
         <v>0.64473637303482945</v>
       </c>
       <c r="S33" s="12">
@@ -11213,7 +11213,7 @@
         <v>0.33489542989930288</v>
       </c>
       <c r="R34" s="14">
-        <f>G34/D34</f>
+        <f t="shared" si="0"/>
         <v>0.50352297210737784</v>
       </c>
       <c r="S34" s="12">
@@ -11287,7 +11287,7 @@
         <v>0.21879792712655188</v>
       </c>
       <c r="R35" s="14">
-        <f>G35/D35</f>
+        <f t="shared" si="0"/>
         <v>0.28007852862161603</v>
       </c>
       <c r="S35" s="12">
@@ -11361,7 +11361,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R36" s="14" t="e">
-        <f>G36/D36</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="S36" s="12" t="e">
@@ -11435,7 +11435,7 @@
         <v>0.29655724579663734</v>
       </c>
       <c r="R37" s="14">
-        <f>G37/D37</f>
+        <f t="shared" si="0"/>
         <v>0.42157978602321877</v>
       </c>
       <c r="S37" s="12">
@@ -11509,7 +11509,7 @@
         <v>0.33067243195299079</v>
       </c>
       <c r="R38" s="14">
-        <f>G38/D38</f>
+        <f t="shared" si="0"/>
         <v>0.49403677323173761</v>
       </c>
       <c r="S38" s="12">
@@ -11583,7 +11583,7 @@
         <v>4.8202537960278069E-2</v>
       </c>
       <c r="R39" s="14">
-        <f>G39/D39</f>
+        <f t="shared" si="0"/>
         <v>5.0643692468961901E-2</v>
       </c>
       <c r="S39" s="12">
@@ -11655,7 +11655,7 @@
         <v>0</v>
       </c>
       <c r="R40" s="14">
-        <f>G40/D40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S40" s="12">
@@ -11729,7 +11729,7 @@
         <v>4.6219564288765502E-2</v>
       </c>
       <c r="R41" s="14">
-        <f>G41/D41</f>
+        <f t="shared" si="0"/>
         <v>4.8459333572196346E-2</v>
       </c>
       <c r="S41" s="12">
@@ -11799,7 +11799,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R42" s="14">
-        <f>G42/D42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S42" s="12">
@@ -11869,7 +11869,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R43" s="14">
-        <f>G43/D43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="S43" s="12">
@@ -11943,7 +11943,7 @@
         <v>0.29007491604236624</v>
       </c>
       <c r="R44" s="14">
-        <f>G44/D44</f>
+        <f t="shared" si="0"/>
         <v>0.40859933336244414</v>
       </c>
       <c r="S44" s="12">
@@ -12017,7 +12017,7 @@
         <v>0.34329649726884326</v>
       </c>
       <c r="R45" s="14">
-        <f>G45/D45</f>
+        <f t="shared" si="0"/>
         <v>0.52275721972109368</v>
       </c>
       <c r="S45" s="12">
@@ -12089,7 +12089,7 @@
         <v>0.34426783902603997</v>
       </c>
       <c r="R46" s="14">
-        <f>G46/D46</f>
+        <f t="shared" si="0"/>
         <v>0.52501289324394018</v>
       </c>
       <c r="S46" s="12">
@@ -12161,7 +12161,7 @@
         <v>0.3517060367454069</v>
       </c>
       <c r="R47" s="14">
-        <f>G47/D47</f>
+        <f t="shared" si="0"/>
         <v>0.54251012145748989</v>
       </c>
       <c r="S47" s="12">
@@ -12233,7 +12233,7 @@
         <v>1.1864406779661052E-2</v>
       </c>
       <c r="R48" s="14">
-        <f>G48/D48</f>
+        <f t="shared" si="0"/>
         <v>1.2006861063464836E-2</v>
       </c>
       <c r="S48" s="12">
@@ -12307,7 +12307,7 @@
         <v>0.4453961456102784</v>
       </c>
       <c r="R49" s="14">
-        <f>G49/D49</f>
+        <f t="shared" si="0"/>
         <v>0.80308880308880304</v>
       </c>
       <c r="S49" s="12">
@@ -12381,7 +12381,7 @@
         <v>7.5959487366168532E-2</v>
       </c>
       <c r="R50" s="14">
-        <f>G50/D50</f>
+        <f t="shared" si="0"/>
         <v>8.220363320397929E-2</v>
       </c>
       <c r="S50" s="12">
@@ -12455,7 +12455,7 @@
         <v>0.46256856504367849</v>
       </c>
       <c r="R51" s="14">
-        <f>G51/D51</f>
+        <f t="shared" si="0"/>
         <v>0.86070247283036694</v>
       </c>
       <c r="S51" s="12">
@@ -12527,7 +12527,7 @@
         <v>9.7560975609756184E-3</v>
       </c>
       <c r="R52" s="14">
-        <f>G52/D52</f>
+        <f t="shared" si="0"/>
         <v>9.852216748768473E-3</v>
       </c>
       <c r="S52" s="12">
@@ -12601,7 +12601,7 @@
         <v>#VALUE!</v>
       </c>
       <c r="R53" s="14" t="e">
-        <f>G53/D53</f>
+        <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
       <c r="S53" s="12" t="e">
@@ -12675,7 +12675,7 @@
         <v>3.6385203409190825E-2</v>
       </c>
       <c r="R54" s="14">
-        <f>G54/D54</f>
+        <f t="shared" si="0"/>
         <v>3.775907503487768E-2</v>
       </c>
       <c r="S54" s="12">
@@ -12749,7 +12749,7 @@
         <v>0.27571969262530105</v>
       </c>
       <c r="R55" s="14">
-        <f>G55/D55</f>
+        <f t="shared" si="0"/>
         <v>0.38068091844813934</v>
       </c>
       <c r="S55" s="12">
@@ -12821,7 +12821,7 @@
         <v>6.0344827586206962E-2</v>
       </c>
       <c r="R56" s="14">
-        <f>G56/D56</f>
+        <f t="shared" si="0"/>
         <v>6.4220183486238536E-2</v>
       </c>
       <c r="S56" s="12">
@@ -12895,7 +12895,7 @@
         <v>0.27207944558119379</v>
       </c>
       <c r="R57" s="14">
-        <f>G57/D57</f>
+        <f t="shared" si="0"/>
         <v>0.3737762918350756</v>
       </c>
       <c r="S57" s="12">
@@ -12969,7 +12969,7 @@
         <v>0.23497899455832183</v>
       </c>
       <c r="R58" s="14">
-        <f>G58/D58</f>
+        <f t="shared" si="0"/>
         <v>0.30715365053624738</v>
       </c>
       <c r="S58" s="12">
@@ -13043,7 +13043,7 @@
         <v>0.35088769308616841</v>
       </c>
       <c r="R59" s="14">
-        <f>G59/D59</f>
+        <f t="shared" si="0"/>
         <v>0.54056546047392728</v>
       </c>
       <c r="S59" s="12">
@@ -13117,7 +13117,7 @@
         <v>5.4306010264604354E-2</v>
       </c>
       <c r="R60" s="14">
-        <f>G60/D60</f>
+        <f t="shared" si="0"/>
         <v>5.7424506081295137E-2</v>
       </c>
       <c r="S60" s="12">
@@ -13191,7 +13191,7 @@
         <v>0.20332331369484191</v>
       </c>
       <c r="R61" s="14">
-        <f>G61/D61</f>
+        <f t="shared" si="0"/>
         <v>0.25521433875242228</v>
       </c>
       <c r="S61" s="12">
@@ -13263,7 +13263,7 @@
         <v>0.34333762471837792</v>
       </c>
       <c r="R62" s="14">
-        <f>G62/D62</f>
+        <f t="shared" si="0"/>
         <v>0.52285259159416742</v>
       </c>
       <c r="S62" s="12">
@@ -13337,7 +13337,7 @@
         <v>3.7974683544303778E-2</v>
       </c>
       <c r="R63" s="14">
-        <f>G63/D63</f>
+        <f t="shared" si="0"/>
         <v>3.9473684210526314E-2</v>
       </c>
       <c r="S63" s="12">
@@ -13411,7 +13411,7 @@
         <v>2.7758834321061188E-2</v>
       </c>
       <c r="R64" s="14">
-        <f>G64/D64</f>
+        <f t="shared" si="0"/>
         <v>2.8551387557917824E-2</v>
       </c>
       <c r="S64" s="12">
@@ -13485,7 +13485,7 @@
         <v>0.22614013893083662</v>
       </c>
       <c r="R65" s="14">
-        <f>G65/D65</f>
+        <f t="shared" si="0"/>
         <v>0.29222363157381209</v>
       </c>
       <c r="S65" s="12">
@@ -13559,7 +13559,7 @@
         <v>2.6097885553748368E-2</v>
       </c>
       <c r="R66" s="14">
-        <f>G66/D66</f>
+        <f t="shared" ref="R66:R129" si="1">G66/D66</f>
         <v>2.6797236772185529E-2</v>
       </c>
       <c r="S66" s="12">
@@ -13631,7 +13631,7 @@
         <v>4.4444444444444509E-2</v>
       </c>
       <c r="R67" s="14">
-        <f>G67/D67</f>
+        <f t="shared" si="1"/>
         <v>4.6511627906976744E-2</v>
       </c>
       <c r="S67" s="12">
@@ -13705,7 +13705,7 @@
         <v>0.23708533110090735</v>
       </c>
       <c r="R68" s="14">
-        <f>G68/D68</f>
+        <f t="shared" si="1"/>
         <v>0.31076258035912213</v>
       </c>
       <c r="S68" s="12">
@@ -13777,7 +13777,7 @@
         <v>0.41493617831967999</v>
       </c>
       <c r="R69" s="14">
-        <f>G69/D69</f>
+        <f t="shared" si="1"/>
         <v>0.70921523933572128</v>
       </c>
       <c r="S69" s="12">
@@ -13851,7 +13851,7 @@
         <v>6.5013853062004356E-2</v>
       </c>
       <c r="R70" s="14">
-        <f>G70/D70</f>
+        <f t="shared" si="1"/>
         <v>6.9534562918305828E-2</v>
       </c>
       <c r="S70" s="12">
@@ -13925,7 +13925,7 @@
         <v>0.41007744956772341</v>
       </c>
       <c r="R71" s="14">
-        <f>G71/D71</f>
+        <f t="shared" si="1"/>
         <v>0.69513777574230973</v>
       </c>
       <c r="S71" s="12">
@@ -13999,7 +13999,7 @@
         <v>0.41609558952732395</v>
       </c>
       <c r="R72" s="14">
-        <f>G72/D72</f>
+        <f t="shared" si="1"/>
         <v>0.71260908817333735</v>
       </c>
       <c r="S72" s="12">
@@ -14073,7 +14073,7 @@
         <v>0.44852941176470595</v>
       </c>
       <c r="R73" s="14">
-        <f>G73/D73</f>
+        <f t="shared" si="1"/>
         <v>0.81333333333333335</v>
       </c>
       <c r="S73" s="12">
@@ -14147,7 +14147,7 @@
         <v>0.24944256929528486</v>
       </c>
       <c r="R74" s="14">
-        <f>G74/D74</f>
+        <f t="shared" si="1"/>
         <v>0.33234308140961</v>
       </c>
       <c r="S74" s="12">
@@ -14221,7 +14221,7 @@
         <v>0.4474389566240643</v>
       </c>
       <c r="R75" s="14">
-        <f>G75/D75</f>
+        <f t="shared" si="1"/>
         <v>0.80975479901801295</v>
       </c>
       <c r="S75" s="12">
@@ -14293,7 +14293,7 @@
         <v>1.2499999999999956E-2</v>
       </c>
       <c r="R76" s="14">
-        <f>G76/D76</f>
+        <f t="shared" si="1"/>
         <v>1.2658227848101266E-2</v>
       </c>
       <c r="S76" s="12">
@@ -14367,7 +14367,7 @@
         <v>0.28663525911232335</v>
       </c>
       <c r="R77" s="14">
-        <f>G77/D77</f>
+        <f t="shared" si="1"/>
         <v>0.40180743830378868</v>
       </c>
       <c r="S77" s="12">
@@ -14441,7 +14441,7 @@
         <v>6.5714581392942062E-2</v>
       </c>
       <c r="R78" s="14">
-        <f>G78/D78</f>
+        <f t="shared" si="1"/>
         <v>7.033673017279575E-2</v>
       </c>
       <c r="S78" s="12">
@@ -14515,7 +14515,7 @@
         <v>0.25572217837411204</v>
       </c>
       <c r="R79" s="14">
-        <f>G79/D79</f>
+        <f t="shared" si="1"/>
         <v>0.34358430540827145</v>
       </c>
       <c r="S79" s="12">
@@ -14587,7 +14587,7 @@
         <v>0.4440301037358465</v>
       </c>
       <c r="R80" s="14">
-        <f>G80/D80</f>
+        <f t="shared" si="1"/>
         <v>0.7986585365853659</v>
       </c>
       <c r="S80" s="12">
@@ -14659,7 +14659,7 @@
         <v>5.8910162002945299E-3</v>
       </c>
       <c r="R81" s="14">
-        <f>G81/D81</f>
+        <f t="shared" si="1"/>
         <v>5.9259259259259256E-3</v>
       </c>
       <c r="S81" s="12">
@@ -14733,7 +14733,7 @@
         <v>1.9408054342552106E-2</v>
       </c>
       <c r="R82" s="14">
-        <f>G82/D82</f>
+        <f t="shared" si="1"/>
         <v>1.9792182088075209E-2</v>
       </c>
       <c r="S82" s="12">
@@ -14807,7 +14807,7 @@
         <v>0.33864379084967311</v>
       </c>
       <c r="R83" s="14">
-        <f>G83/D83</f>
+        <f t="shared" si="1"/>
         <v>0.51204447189623226</v>
       </c>
       <c r="S83" s="12">
@@ -14881,7 +14881,7 @@
         <v>0.28865416135494448</v>
       </c>
       <c r="R84" s="14">
-        <f>G84/D84</f>
+        <f t="shared" si="1"/>
         <v>0.40578597030209934</v>
       </c>
       <c r="S84" s="12">
@@ -14955,7 +14955,7 @@
         <v>0.31000949893137031</v>
       </c>
       <c r="R85" s="14">
-        <f>G85/D85</f>
+        <f t="shared" si="1"/>
         <v>0.44929531414017998</v>
       </c>
       <c r="S85" s="12">
@@ -15029,7 +15029,7 @@
         <v>1.4808831448573034E-2</v>
       </c>
       <c r="R86" s="14">
-        <f>G86/D86</f>
+        <f t="shared" si="1"/>
         <v>1.5031429352282044E-2</v>
       </c>
       <c r="S86" s="12">
@@ -15103,7 +15103,7 @@
         <v>0.25319276126297485</v>
       </c>
       <c r="R87" s="14">
-        <f>G87/D87</f>
+        <f t="shared" si="1"/>
         <v>0.33903361956047157</v>
       </c>
       <c r="S87" s="12">
@@ -15177,7 +15177,7 @@
         <v>0.29645145391818628</v>
       </c>
       <c r="R88" s="14">
-        <f>G88/D88</f>
+        <f t="shared" si="1"/>
         <v>0.42136602451838878</v>
       </c>
       <c r="S88" s="12">
@@ -15251,7 +15251,7 @@
         <v>0.30669438983300912</v>
       </c>
       <c r="R89" s="14">
-        <f>G89/D89</f>
+        <f t="shared" si="1"/>
         <v>0.44236536577157959</v>
       </c>
       <c r="S89" s="12">
@@ -15325,7 +15325,7 @@
         <v>0.32754500557591204</v>
       </c>
       <c r="R90" s="14">
-        <f>G90/D90</f>
+        <f t="shared" si="1"/>
         <v>0.48708836768538261</v>
       </c>
       <c r="S90" s="12">
@@ -15399,7 +15399,7 @@
         <v>7.999999999999996E-2</v>
       </c>
       <c r="R91" s="14">
-        <f>G91/D91</f>
+        <f t="shared" si="1"/>
         <v>8.6956521739130432E-2</v>
       </c>
       <c r="S91" s="12">
@@ -15473,7 +15473,7 @@
         <v>0.18100318635651547</v>
       </c>
       <c r="R92" s="14">
-        <f>G92/D92</f>
+        <f t="shared" si="1"/>
         <v>0.22100597138013714</v>
       </c>
       <c r="S92" s="12">
@@ -15543,7 +15543,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R93" s="14">
-        <f>G93/D93</f>
+        <f t="shared" si="1"/>
         <v>0.75</v>
       </c>
       <c r="S93" s="12">
@@ -15617,7 +15617,7 @@
         <v>0.17109489051094884</v>
       </c>
       <c r="R94" s="14">
-        <f>G94/D94</f>
+        <f t="shared" si="1"/>
         <v>0.20641070799577316</v>
       </c>
       <c r="S94" s="12">
@@ -15689,7 +15689,7 @@
         <v>6.7226890756302504E-2</v>
       </c>
       <c r="R95" s="14">
-        <f>G95/D95</f>
+        <f t="shared" si="1"/>
         <v>7.2072072072072071E-2</v>
       </c>
       <c r="S95" s="12">
@@ -15763,7 +15763,7 @@
         <v>0.22063404801172803</v>
       </c>
       <c r="R96" s="16">
-        <f>G96/D96</f>
+        <f t="shared" si="1"/>
         <v>0.28309428638608042</v>
       </c>
       <c r="S96" s="12">
@@ -15837,7 +15837,7 @@
         <v>0.36923076923076925</v>
       </c>
       <c r="R97" s="14">
-        <f>G97/D97</f>
+        <f t="shared" si="1"/>
         <v>0.58536585365853655</v>
       </c>
       <c r="S97" s="12">
@@ -15911,7 +15911,7 @@
         <v>0.11858246251703775</v>
       </c>
       <c r="R98" s="14">
-        <f>G98/D98</f>
+        <f t="shared" si="1"/>
         <v>0.1345360824742268</v>
       </c>
       <c r="S98" s="12">
@@ -15985,7 +15985,7 @@
         <v>0.40984267849939493</v>
       </c>
       <c r="R99" s="14">
-        <f>G99/D99</f>
+        <f t="shared" si="1"/>
         <v>0.69446343130553656</v>
       </c>
       <c r="S99" s="12">
@@ -16059,7 +16059,7 @@
         <v>0.23597038191738118</v>
       </c>
       <c r="R100" s="14">
-        <f>G100/D100</f>
+        <f t="shared" si="1"/>
         <v>0.30884978321856671</v>
       </c>
       <c r="S100" s="12">
@@ -16131,7 +16131,7 @@
         <v>0.14059900166389361</v>
       </c>
       <c r="R101" s="14">
-        <f>G101/D101</f>
+        <f t="shared" si="1"/>
         <v>0.16360116166505323</v>
       </c>
       <c r="S101" s="12">
@@ -16205,7 +16205,7 @@
         <v>0.11676915406348676</v>
       </c>
       <c r="R102" s="14">
-        <f>G102/D102</f>
+        <f t="shared" si="1"/>
         <v>0.13220683426162877</v>
       </c>
       <c r="S102" s="12">
@@ -16279,7 +16279,7 @@
         <v>0.38869487763152311</v>
       </c>
       <c r="R103" s="14">
-        <f>G103/D103</f>
+        <f t="shared" si="1"/>
         <v>0.63584430002081549</v>
       </c>
       <c r="S103" s="12">
@@ -16353,7 +16353,7 @@
         <v>0.17391304347826086</v>
       </c>
       <c r="R104" s="14">
-        <f>G104/D104</f>
+        <f t="shared" si="1"/>
         <v>0.21052631578947367</v>
       </c>
       <c r="S104" s="12">
@@ -16427,7 +16427,7 @@
         <v>0.25685430661660436</v>
       </c>
       <c r="R105" s="14">
-        <f>G105/D105</f>
+        <f t="shared" si="1"/>
         <v>0.34563115806699674</v>
       </c>
       <c r="S105" s="12">
@@ -16499,7 +16499,7 @@
         <v>0.15441722345953979</v>
       </c>
       <c r="R106" s="14">
-        <f>G106/D106</f>
+        <f t="shared" si="1"/>
         <v>0.18261633011413519</v>
       </c>
       <c r="S106" s="12">
@@ -16573,7 +16573,7 @@
         <v>0.10930232558139541</v>
       </c>
       <c r="R107" s="14">
-        <f>G107/D107</f>
+        <f t="shared" si="1"/>
         <v>0.12271540469973891</v>
       </c>
       <c r="S107" s="12">
@@ -16647,7 +16647,7 @@
         <v>0.18459495351925637</v>
       </c>
       <c r="R108" s="14">
-        <f>G108/D108</f>
+        <f t="shared" si="1"/>
         <v>0.2263843648208469</v>
       </c>
       <c r="S108" s="12">
@@ -16721,7 +16721,7 @@
         <v>0.35768261964735515</v>
       </c>
       <c r="R109" s="14">
-        <f>G109/D109</f>
+        <f t="shared" si="1"/>
         <v>0.55686274509803924</v>
       </c>
       <c r="S109" s="12">
@@ -16793,7 +16793,7 @@
         <v>0.10264150943396222</v>
       </c>
       <c r="R110" s="14">
-        <f>G110/D110</f>
+        <f t="shared" si="1"/>
         <v>0.11438183347350715</v>
       </c>
       <c r="S110" s="12">
@@ -16865,7 +16865,7 @@
         <v>0.30707331611364996</v>
       </c>
       <c r="R111" s="14">
-        <f>G111/D111</f>
+        <f t="shared" si="1"/>
         <v>0.44315412186379927</v>
       </c>
       <c r="S111" s="12">
@@ -16939,7 +16939,7 @@
         <v>0.11288639982430126</v>
       </c>
       <c r="R112" s="14">
-        <f>G112/D112</f>
+        <f t="shared" si="1"/>
         <v>0.1272513461657486</v>
       </c>
       <c r="S112" s="12">
@@ -17009,7 +17009,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R113" s="14">
-        <f>G113/D113</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="S113" s="12">
@@ -17081,7 +17081,7 @@
         <v>0.24971063574398766</v>
       </c>
       <c r="R114" s="14">
-        <f>G114/D114</f>
+        <f t="shared" si="1"/>
         <v>0.3328191063878414</v>
       </c>
       <c r="S114" s="12">
@@ -17155,7 +17155,7 @@
         <v>0.38835606174134574</v>
       </c>
       <c r="R115" s="14">
-        <f>G115/D115</f>
+        <f t="shared" si="1"/>
         <v>0.63493813548940337</v>
       </c>
       <c r="S115" s="12">
@@ -17227,7 +17227,7 @@
         <v>0.30470098487156061</v>
       </c>
       <c r="R116" s="14">
-        <f>G116/D116</f>
+        <f t="shared" si="1"/>
         <v>0.43823014018691586</v>
       </c>
       <c r="S116" s="12">
@@ -17301,7 +17301,7 @@
         <v>0.23391657829621781</v>
       </c>
       <c r="R117" s="14">
-        <f>G117/D117</f>
+        <f t="shared" si="1"/>
         <v>0.3053408697658323</v>
       </c>
       <c r="S117" s="12">
@@ -17375,7 +17375,7 @@
         <v>0.19924112517786119</v>
       </c>
       <c r="R118" s="16">
-        <f>G118/D118</f>
+        <f t="shared" si="1"/>
         <v>0.24881538181155458</v>
       </c>
       <c r="S118" s="12">
@@ -17449,7 +17449,7 @@
         <v>0.15260938323668949</v>
       </c>
       <c r="R119" s="14">
-        <f>G119/D119</f>
+        <f t="shared" si="1"/>
         <v>0.18009331259720063</v>
       </c>
       <c r="S119" s="12">
@@ -17523,7 +17523,7 @@
         <v>4.4117647058823484E-2</v>
       </c>
       <c r="R120" s="14">
-        <f>G120/D120</f>
+        <f t="shared" si="1"/>
         <v>4.6153846153846156E-2</v>
       </c>
       <c r="S120" s="12">
@@ -17597,7 +17597,7 @@
         <v>0.36040703052728951</v>
       </c>
       <c r="R121" s="14">
-        <f>G121/D121</f>
+        <f t="shared" si="1"/>
         <v>0.5634943592710443</v>
       </c>
       <c r="S121" s="12">
@@ -17669,7 +17669,7 @@
         <v>0.42648660422565887</v>
       </c>
       <c r="R122" s="14">
-        <f>G122/D122</f>
+        <f t="shared" si="1"/>
         <v>0.74363843524496775</v>
       </c>
       <c r="S122" s="12">
@@ -17741,7 +17741,7 @@
         <v>0.19575773064145152</v>
       </c>
       <c r="R123" s="14">
-        <f>G123/D123</f>
+        <f t="shared" si="1"/>
         <v>0.24340641881156658</v>
       </c>
       <c r="S123" s="12">
@@ -17815,7 +17815,7 @@
         <v>0.30001321062133957</v>
       </c>
       <c r="R124" s="14">
-        <f>G124/D124</f>
+        <f t="shared" si="1"/>
         <v>0.42859838953195772</v>
       </c>
       <c r="S124" s="12">
@@ -17889,7 +17889,7 @@
         <v>0.49283305227655982</v>
       </c>
       <c r="R125" s="16">
-        <f>G125/D125</f>
+        <f t="shared" si="1"/>
         <v>0.97173732335827101</v>
       </c>
       <c r="S125" s="12">
@@ -17963,7 +17963,7 @@
         <v>0.1116422349691949</v>
       </c>
       <c r="R126" s="14">
-        <f>G126/D126</f>
+        <f t="shared" si="1"/>
         <v>0.12567260552433338</v>
       </c>
       <c r="S126" s="12">
@@ -18037,7 +18037,7 @@
         <v>0.21653084982537829</v>
       </c>
       <c r="R127" s="14">
-        <f>G127/D127</f>
+        <f t="shared" si="1"/>
         <v>0.27637444279346213</v>
       </c>
       <c r="S127" s="12">
@@ -18111,7 +18111,7 @@
         <v>0.10328345802161254</v>
       </c>
       <c r="R128" s="14">
-        <f>G128/D128</f>
+        <f t="shared" si="1"/>
         <v>0.11517960602549247</v>
       </c>
       <c r="S128" s="12">
@@ -18185,7 +18185,7 @@
         <v>0.31182795698924726</v>
       </c>
       <c r="R129" s="14">
-        <f>G129/D129</f>
+        <f t="shared" si="1"/>
         <v>0.453125</v>
       </c>
       <c r="S129" s="12">
@@ -18259,7 +18259,7 @@
         <v>0.3032258064516129</v>
       </c>
       <c r="R130" s="14">
-        <f>G130/D130</f>
+        <f t="shared" ref="R130:R193" si="2">G130/D130</f>
         <v>0.43518518518518517</v>
       </c>
       <c r="S130" s="12">
@@ -18333,7 +18333,7 @@
         <v>0.39255278727677356</v>
       </c>
       <c r="R131" s="14">
-        <f>G131/D131</f>
+        <f t="shared" si="2"/>
         <v>0.64623358055580382</v>
       </c>
       <c r="S131" s="12">
@@ -18407,7 +18407,7 @@
         <v>0.37746170678336977</v>
       </c>
       <c r="R132" s="14">
-        <f>G132/D132</f>
+        <f t="shared" si="2"/>
         <v>0.60632688927943756</v>
       </c>
       <c r="S132" s="12">
@@ -18477,7 +18477,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R133" s="14">
-        <f>G133/D133</f>
+        <f t="shared" si="2"/>
         <v>0.3</v>
       </c>
       <c r="S133" s="12">
@@ -18549,7 +18549,7 @@
         <v>2.9585798816568087E-2</v>
       </c>
       <c r="R134" s="14">
-        <f>G134/D134</f>
+        <f t="shared" si="2"/>
         <v>3.048780487804878E-2</v>
       </c>
       <c r="S134" s="12">
@@ -18623,7 +18623,7 @@
         <v>0.17700957934194095</v>
       </c>
       <c r="R135" s="14">
-        <f>G135/D135</f>
+        <f t="shared" si="2"/>
         <v>0.21508097165991902</v>
       </c>
       <c r="S135" s="12">
@@ -18695,7 +18695,7 @@
         <v>5.4545454545454564E-2</v>
       </c>
       <c r="R136" s="14">
-        <f>G136/D136</f>
+        <f t="shared" si="2"/>
         <v>5.7692307692307696E-2</v>
       </c>
       <c r="S136" s="12">
@@ -18769,7 +18769,7 @@
         <v>0.17307692307692313</v>
       </c>
       <c r="R137" s="14">
-        <f>G137/D137</f>
+        <f t="shared" si="2"/>
         <v>0.20930232558139536</v>
       </c>
       <c r="S137" s="12">
@@ -18841,7 +18841,7 @@
         <v>0</v>
       </c>
       <c r="R138" s="14">
-        <f>G138/D138</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S138" s="12">
@@ -18911,7 +18911,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R139" s="14">
-        <f>G139/D139</f>
+        <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
       <c r="S139" s="12">
@@ -18981,7 +18981,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R140" s="14">
-        <f>G140/D140</f>
+        <f t="shared" si="2"/>
         <v>0.17142857142857143</v>
       </c>
       <c r="S140" s="12">
@@ -19053,7 +19053,7 @@
         <v>0.30697256694970609</v>
       </c>
       <c r="R141" s="14">
-        <f>G141/D141</f>
+        <f t="shared" si="2"/>
         <v>0.4429443227068165</v>
       </c>
       <c r="S141" s="12">
@@ -19125,7 +19125,7 @@
         <v>1.3994910941475869E-2</v>
       </c>
       <c r="R142" s="14">
-        <f>G142/D142</f>
+        <f t="shared" si="2"/>
         <v>1.4193548387096775E-2</v>
       </c>
       <c r="S142" s="12">
@@ -19199,7 +19199,7 @@
         <v>7.8222222222222193E-2</v>
       </c>
       <c r="R143" s="14">
-        <f>G143/D143</f>
+        <f t="shared" si="2"/>
         <v>8.4860173577627776E-2</v>
       </c>
       <c r="S143" s="12">
@@ -19273,7 +19273,7 @@
         <v>1.0835214446952568E-2</v>
       </c>
       <c r="R144" s="14">
-        <f>G144/D144</f>
+        <f t="shared" si="2"/>
         <v>1.0953902327704245E-2</v>
       </c>
       <c r="S144" s="12">
@@ -19345,7 +19345,7 @@
         <v>5.7971014492753659E-3</v>
       </c>
       <c r="R145" s="14">
-        <f>G145/D145</f>
+        <f t="shared" si="2"/>
         <v>5.8309037900874635E-3</v>
       </c>
       <c r="S145" s="12">
@@ -19419,7 +19419,7 @@
         <v>6.1468957491957021E-2</v>
       </c>
       <c r="R146" s="14">
-        <f>G146/D146</f>
+        <f t="shared" si="2"/>
         <v>6.5494858143096787E-2</v>
       </c>
       <c r="S146" s="12">
@@ -19491,7 +19491,7 @@
         <v>0</v>
       </c>
       <c r="R147" s="14">
-        <f>G147/D147</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S147" s="12">
@@ -19563,7 +19563,7 @@
         <v>0.43124801524293432</v>
       </c>
       <c r="R148" s="14">
-        <f>G148/D148</f>
+        <f t="shared" si="2"/>
         <v>0.75823562255723065</v>
       </c>
       <c r="S148" s="12">
@@ -19635,7 +19635,7 @@
         <v>9.4339622641509413E-2</v>
       </c>
       <c r="R149" s="14">
-        <f>G149/D149</f>
+        <f t="shared" si="2"/>
         <v>0.10416666666666667</v>
       </c>
       <c r="S149" s="12">
@@ -19709,7 +19709,7 @@
         <v>9.5914742451154611E-2</v>
       </c>
       <c r="R150" s="14">
-        <f>G150/D150</f>
+        <f t="shared" si="2"/>
         <v>0.10609037328094302</v>
       </c>
       <c r="S150" s="12">
@@ -19779,7 +19779,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R151" s="13">
-        <f>G151/D151</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S151" s="12">
@@ -19853,7 +19853,7 @@
         <v>0.33530667701863348</v>
       </c>
       <c r="R152" s="14">
-        <f>G152/D152</f>
+        <f t="shared" si="2"/>
         <v>0.50445320484742295</v>
       </c>
       <c r="S152" s="12">
@@ -19925,7 +19925,7 @@
         <v>0.29042115052477746</v>
       </c>
       <c r="R153" s="14">
-        <f>G153/D153</f>
+        <f t="shared" si="2"/>
         <v>0.40928665043999252</v>
       </c>
       <c r="S153" s="12">
@@ -19999,7 +19999,7 @@
         <v>0.21674008810572687</v>
       </c>
       <c r="R154" s="14">
-        <f>G154/D154</f>
+        <f t="shared" si="2"/>
         <v>0.27671541057367827</v>
       </c>
       <c r="S154" s="12">
@@ -20073,7 +20073,7 @@
         <v>0.38804895608351331</v>
       </c>
       <c r="R155" s="14">
-        <f>G155/D155</f>
+        <f t="shared" si="2"/>
         <v>0.63411764705882356</v>
       </c>
       <c r="S155" s="12">
@@ -20147,7 +20147,7 @@
         <v>0.47537688442211057</v>
       </c>
       <c r="R156" s="14">
-        <f>G156/D156</f>
+        <f t="shared" si="2"/>
         <v>0.9061302681992337</v>
       </c>
       <c r="S156" s="12">
@@ -20217,7 +20217,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R157" s="14">
-        <f>G157/D157</f>
+        <f t="shared" si="2"/>
         <v>3.2258064516129031E-2</v>
       </c>
       <c r="S157" s="12">
@@ -20291,7 +20291,7 @@
         <v>2.279088364654136E-2</v>
       </c>
       <c r="R158" s="14">
-        <f>G158/D158</f>
+        <f t="shared" si="2"/>
         <v>2.3322422258592473E-2</v>
       </c>
       <c r="S158" s="12">
@@ -20363,7 +20363,7 @@
         <v>0.31442974165091364</v>
       </c>
       <c r="R159" s="14">
-        <f>G159/D159</f>
+        <f t="shared" si="2"/>
         <v>0.45863970588235292</v>
       </c>
       <c r="S159" s="12">
@@ -20435,7 +20435,7 @@
         <v>0.19311663479923513</v>
       </c>
       <c r="R160" s="14">
-        <f>G160/D160</f>
+        <f t="shared" si="2"/>
         <v>0.23933649289099526</v>
       </c>
       <c r="S160" s="12">
@@ -20505,7 +20505,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R161" s="14">
-        <f>G161/D161</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S161" s="12">
@@ -20577,7 +20577,7 @@
         <v>0.3075221238938054</v>
       </c>
       <c r="R162" s="14">
-        <f>G162/D162</f>
+        <f t="shared" si="2"/>
         <v>0.44408945686900958</v>
       </c>
       <c r="S162" s="12">
@@ -20651,7 +20651,7 @@
         <v>0.33561497326203205</v>
       </c>
       <c r="R163" s="14">
-        <f>G163/D163</f>
+        <f t="shared" si="2"/>
         <v>0.50515132002575658</v>
       </c>
       <c r="S163" s="12">
@@ -20725,7 +20725,7 @@
         <v>0.12626093430113539</v>
       </c>
       <c r="R164" s="14">
-        <f>G164/D164</f>
+        <f t="shared" si="2"/>
         <v>0.14450645422400205</v>
       </c>
       <c r="S164" s="12">
@@ -20799,7 +20799,7 @@
         <v>0.36122371763688454</v>
       </c>
       <c r="R165" s="16">
-        <f>G165/D165</f>
+        <f t="shared" si="2"/>
         <v>0.5654933152817736</v>
       </c>
       <c r="S165" s="12">
@@ -20871,7 +20871,7 @@
         <v>9.6774193548387122E-2</v>
       </c>
       <c r="R166" s="14">
-        <f>G166/D166</f>
+        <f t="shared" si="2"/>
         <v>0.10714285714285714</v>
       </c>
       <c r="S166" s="12">
@@ -20943,7 +20943,7 @@
         <v>0.44167962674961114</v>
       </c>
       <c r="R167" s="14">
-        <f>G167/D167</f>
+        <f t="shared" si="2"/>
         <v>0.79108635097493041</v>
       </c>
       <c r="S167" s="12">
@@ -21017,7 +21017,7 @@
         <v>0.31932389218821378</v>
       </c>
       <c r="R168" s="14">
-        <f>G168/D168</f>
+        <f t="shared" si="2"/>
         <v>0.46912751677852349</v>
       </c>
       <c r="S168" s="12">
@@ -21091,7 +21091,7 @@
         <v>0.36910642119443204</v>
       </c>
       <c r="R169" s="14">
-        <f>G169/D169</f>
+        <f t="shared" si="2"/>
         <v>0.58505338078291813</v>
       </c>
       <c r="S169" s="12">
@@ -21165,7 +21165,7 @@
         <v>0.32998745294855703</v>
       </c>
       <c r="R170" s="14">
-        <f>G170/D170</f>
+        <f t="shared" si="2"/>
         <v>0.49250936329588013</v>
       </c>
       <c r="S170" s="12">
@@ -21239,7 +21239,7 @@
         <v>0.19839857651245552</v>
       </c>
       <c r="R171" s="16">
-        <f>G171/D171</f>
+        <f t="shared" si="2"/>
         <v>0.24750277469478357</v>
       </c>
       <c r="S171" s="12">
@@ -21309,7 +21309,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R172" s="14">
-        <f>G172/D172</f>
+        <f t="shared" si="2"/>
         <v>0.17391304347826086</v>
       </c>
       <c r="S172" s="12">
@@ -21381,7 +21381,7 @@
         <v>0.17982747179827474</v>
       </c>
       <c r="R173" s="14">
-        <f>G173/D173</f>
+        <f t="shared" si="2"/>
         <v>0.21925566343042072</v>
       </c>
       <c r="S173" s="12">
@@ -21455,7 +21455,7 @@
         <v>0.12974910394265227</v>
       </c>
       <c r="R174" s="14">
-        <f>G174/D174</f>
+        <f t="shared" si="2"/>
         <v>0.14909390444810544</v>
       </c>
       <c r="S174" s="12">
@@ -21527,7 +21527,7 @@
         <v>0.31090487238979114</v>
       </c>
       <c r="R175" s="14">
-        <f>G175/D175</f>
+        <f t="shared" si="2"/>
         <v>0.45117845117845118</v>
       </c>
       <c r="S175" s="12">
@@ -21599,7 +21599,7 @@
         <v>0.13088330109606705</v>
       </c>
       <c r="R176" s="14">
-        <f>G176/D176</f>
+        <f t="shared" si="2"/>
         <v>0.15059347181008903</v>
       </c>
       <c r="S176" s="12">
@@ -21669,7 +21669,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R177" s="14">
-        <f>G177/D177</f>
+        <f t="shared" si="2"/>
         <v>0.10344827586206896</v>
       </c>
       <c r="S177" s="12">
@@ -21741,7 +21741,7 @@
         <v>0.2857142857142857</v>
       </c>
       <c r="R178" s="14">
-        <f>G178/D178</f>
+        <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
       <c r="S178" s="12">
@@ -21813,7 +21813,7 @@
         <v>2.857142857142847E-2</v>
       </c>
       <c r="R179" s="14">
-        <f>G179/D179</f>
+        <f t="shared" si="2"/>
         <v>2.9411764705882353E-2</v>
       </c>
       <c r="S179" s="12">
@@ -21885,7 +21885,7 @@
         <v>0.4028595458368377</v>
       </c>
       <c r="R180" s="14">
-        <f>G180/D180</f>
+        <f t="shared" si="2"/>
         <v>0.67464788732394365</v>
       </c>
       <c r="S180" s="12">
@@ -21957,7 +21957,7 @@
         <v>0.31444572558062922</v>
       </c>
       <c r="R181" s="14">
-        <f>G181/D181</f>
+        <f t="shared" si="2"/>
         <v>0.45867371456030753</v>
       </c>
       <c r="S181" s="12">
@@ -22031,7 +22031,7 @@
         <v>0.21112255406797109</v>
       </c>
       <c r="R182" s="14">
-        <f>G182/D182</f>
+        <f t="shared" si="2"/>
         <v>0.26762402088772846</v>
       </c>
       <c r="S182" s="12">
@@ -22103,7 +22103,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R183" s="14">
-        <f>G183/D183</f>
+        <f t="shared" si="2"/>
         <v>0.26480836236933797</v>
       </c>
       <c r="S183" s="12">
@@ -22173,7 +22173,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R184" s="14">
-        <f>G184/D184</f>
+        <f t="shared" si="2"/>
         <v>4.5454545454545456E-2</v>
       </c>
       <c r="S184" s="12">
@@ -22247,7 +22247,7 @@
         <v>0.41414880873153204</v>
       </c>
       <c r="R185" s="14">
-        <f>G185/D185</f>
+        <f t="shared" si="2"/>
         <v>0.70691809610360101</v>
       </c>
       <c r="S185" s="12">
@@ -22317,7 +22317,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R186" s="14">
-        <f>G186/D186</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="S186" s="12">
@@ -22387,7 +22387,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R187" s="14">
-        <f>G187/D187</f>
+        <f t="shared" si="2"/>
         <v>0.38247011952191234</v>
       </c>
       <c r="S187" s="12">
@@ -22461,7 +22461,7 @@
         <v>3.0037188900543521E-3</v>
       </c>
       <c r="R188" s="14">
-        <f>G188/D188</f>
+        <f t="shared" si="2"/>
         <v>3.0127683994070108E-3</v>
       </c>
       <c r="S188" s="12">
@@ -22532,7 +22532,7 @@
         <v>1.3348164627363768E-2</v>
       </c>
       <c r="R189" s="16">
-        <f>G189/D189</f>
+        <f t="shared" si="2"/>
         <v>1.3528748590755355E-2</v>
       </c>
       <c r="S189" s="12">
@@ -22603,7 +22603,7 @@
         <v>0.21864154685175996</v>
       </c>
       <c r="R190" s="14">
-        <f>G190/D190</f>
+        <f t="shared" si="2"/>
         <v>0.27982233502538073</v>
       </c>
       <c r="S190" s="12">
@@ -22674,7 +22674,7 @@
         <v>9.2720970537261693E-2</v>
       </c>
       <c r="R191" s="14">
-        <f>G191/D191</f>
+        <f t="shared" si="2"/>
         <v>0.10219675262655205</v>
       </c>
       <c r="S191" s="12">
@@ -22747,7 +22747,7 @@
         <v>2.7561414020371489E-2</v>
       </c>
       <c r="R192" s="16">
-        <f>G192/D192</f>
+        <f t="shared" si="2"/>
         <v>2.8342575477510783E-2</v>
       </c>
       <c r="S192" s="12">
@@ -22818,7 +22818,7 @@
         <v>0.41476345840130502</v>
       </c>
       <c r="R193" s="16">
-        <f>G193/D193</f>
+        <f t="shared" si="2"/>
         <v>0.70871080139372822</v>
       </c>
       <c r="S193" s="12">
@@ -22889,7 +22889,7 @@
         <v>1.7825311942958999E-2</v>
       </c>
       <c r="R194" s="16">
-        <f>G194/D194</f>
+        <f t="shared" ref="R194:R208" si="3">G194/D194</f>
         <v>1.8148820326678767E-2</v>
       </c>
       <c r="S194" s="12">
@@ -22960,7 +22960,7 @@
         <v>0.3007518796992481</v>
       </c>
       <c r="R195" s="16">
-        <f>G195/D195</f>
+        <f t="shared" si="3"/>
         <v>0.43010752688172044</v>
       </c>
       <c r="S195" s="12">
@@ -23029,7 +23029,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R196" s="16">
-        <f>G196/D196</f>
+        <f t="shared" si="3"/>
         <v>0.30769230769230771</v>
       </c>
       <c r="S196" s="12">
@@ -23100,7 +23100,7 @@
         <v>0.39732685297691372</v>
       </c>
       <c r="R197" s="16">
-        <f>G197/D197</f>
+        <f t="shared" si="3"/>
         <v>0.65927419354838712</v>
       </c>
       <c r="S197" s="12">
@@ -23171,7 +23171,7 @@
         <v>0.24757281553398058</v>
       </c>
       <c r="R198" s="16">
-        <f>G198/D198</f>
+        <f t="shared" si="3"/>
         <v>0.32903225806451614</v>
       </c>
       <c r="S198" s="12">
@@ -23240,7 +23240,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R199" s="16">
-        <f>G199/D199</f>
+        <f t="shared" si="3"/>
         <v>3.6723163841807911E-2</v>
       </c>
       <c r="S199" s="12">
@@ -23313,7 +23313,7 @@
         <v>0.3912213740458016</v>
       </c>
       <c r="R200" s="16">
-        <f>G200/D200</f>
+        <f t="shared" si="3"/>
         <v>0.64263322884012541</v>
       </c>
       <c r="S200" s="12">
@@ -23384,7 +23384,7 @@
         <v>1.5184381778741818E-2</v>
       </c>
       <c r="R201" s="16">
-        <f>G201/D201</f>
+        <f t="shared" si="3"/>
         <v>1.5418502202643172E-2</v>
       </c>
       <c r="S201" s="12">
@@ -23453,7 +23453,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R202" s="16">
-        <f>G202/D202</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S202" s="12">
@@ -23524,7 +23524,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R203" s="16">
-        <f>G203/D203</f>
+        <f t="shared" si="3"/>
         <v>0.22222222222222221</v>
       </c>
       <c r="S203" s="12">
@@ -23597,7 +23597,7 @@
         <v>0.37469287469287471</v>
       </c>
       <c r="R204" s="16">
-        <f>G204/D204</f>
+        <f t="shared" si="3"/>
         <v>0.59921414538310414</v>
       </c>
       <c r="S204" s="12">
@@ -23668,7 +23668,7 @@
         <v>0.15461346633416462</v>
       </c>
       <c r="R205" s="16">
-        <f>G205/D205</f>
+        <f t="shared" si="3"/>
         <v>0.18289085545722714</v>
       </c>
       <c r="S205" s="12">
@@ -23739,7 +23739,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R206" s="16">
-        <f>G206/D206</f>
+        <f t="shared" si="3"/>
         <v>6.8062827225130892E-2</v>
       </c>
       <c r="S206" s="12">
@@ -23808,7 +23808,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R207" s="16">
-        <f>G207/D207</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="S207" s="12">
@@ -23877,7 +23877,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R208" s="16">
-        <f>G208/D208</f>
+        <f t="shared" si="3"/>
         <v>0.5</v>
       </c>
       <c r="S208" s="12">
@@ -23946,7 +23946,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R209" s="16">
-        <f t="shared" ref="R209:R214" si="0">G209/D209</f>
+        <f t="shared" ref="R209:R214" si="4">G209/D209</f>
         <v>0</v>
       </c>
       <c r="S209" s="12">
@@ -24017,7 +24017,7 @@
         <v>7.6923076923076872E-2</v>
       </c>
       <c r="R210" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>8.3333333333333329E-2</v>
       </c>
       <c r="S210" s="12">
@@ -24086,7 +24086,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R211" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S211" s="12">
@@ -24157,7 +24157,7 @@
         <v>9.0909090909090939E-2</v>
       </c>
       <c r="R212" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.1</v>
       </c>
       <c r="S212" s="12">
@@ -24226,7 +24226,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R213" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0.75</v>
       </c>
       <c r="S213" s="12">
@@ -24242,23 +24242,23 @@
       <c r="A214" s="1">
         <v>215</v>
       </c>
-      <c r="B214" s="76">
+      <c r="B214" s="74">
         <v>215</v>
       </c>
       <c r="C214" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="D214" s="77">
+      <c r="D214" s="75">
         <v>3</v>
       </c>
-      <c r="E214" s="77"/>
-      <c r="F214" s="77">
+      <c r="E214" s="75"/>
+      <c r="F214" s="75">
         <v>3</v>
       </c>
-      <c r="G214" s="77">
+      <c r="G214" s="75">
         <v>0</v>
       </c>
-      <c r="H214" s="77"/>
+      <c r="H214" s="75"/>
       <c r="I214" s="43">
         <v>15009</v>
       </c>
@@ -24295,7 +24295,7 @@
         <v>#DIV/0!</v>
       </c>
       <c r="R214" s="16">
-        <f t="shared" si="0"/>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="S214" s="12">
@@ -24973,11 +24973,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMI91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="17" topLeftCell="N26" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="17" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N54" sqref="N54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32773,14 +32773,14 @@
         <f t="shared" si="9"/>
         <v>1.0564996093150965</v>
       </c>
-      <c r="H121" s="75" t="s">
+      <c r="H121" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="I121" s="75"/>
-      <c r="J121" s="75"/>
-      <c r="K121" s="75"/>
-      <c r="L121" s="75"/>
-      <c r="M121" s="75"/>
+      <c r="I121" s="77"/>
+      <c r="J121" s="77"/>
+      <c r="K121" s="77"/>
+      <c r="L121" s="77"/>
+      <c r="M121" s="77"/>
     </row>
     <row r="122" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B122" s="36">
@@ -32800,10 +32800,10 @@
         <f t="shared" si="9"/>
         <v>0.96916641867539599</v>
       </c>
-      <c r="H122" s="74" t="s">
+      <c r="H122" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="I122" s="74"/>
+      <c r="I122" s="76"/>
       <c r="J122" t="s">
         <v>309</v>
       </c>
@@ -32992,7 +32992,7 @@
         <v>74987</v>
       </c>
       <c r="E127" s="35">
-        <f t="shared" ref="E125:E127" si="10">AVERAGE(E113:E126)</f>
+        <f t="shared" ref="E127" si="10">AVERAGE(E113:E126)</f>
         <v>1.6510348576048932E-2</v>
       </c>
       <c r="F127" s="35">
@@ -33052,11 +33052,11 @@
         <v>44031</v>
       </c>
       <c r="C129" s="40">
-        <f t="shared" ref="C129:C142" si="11">$E$127*D115</f>
+        <f t="shared" ref="C129:C141" si="11">$E$127*D115</f>
         <v>760.07040704698863</v>
       </c>
       <c r="D129" s="40">
-        <f t="shared" ref="D129:D142" si="12">D128*AVERAGE($F$121:$F$127)</f>
+        <f t="shared" ref="D129:D141" si="12">D128*AVERAGE($F$121:$F$127)</f>
         <v>84011.183733514554</v>
       </c>
       <c r="E129" s="38">
@@ -33179,14 +33179,14 @@
         <f>SUM(D$2:D133)</f>
         <v>4321509.4021460302</v>
       </c>
-      <c r="H133" s="75" t="s">
+      <c r="H133" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="I133" s="75"/>
-      <c r="J133" s="75"/>
-      <c r="K133" s="75"/>
-      <c r="L133" s="75"/>
-      <c r="M133" s="75"/>
+      <c r="I133" s="77"/>
+      <c r="J133" s="77"/>
+      <c r="K133" s="77"/>
+      <c r="L133" s="77"/>
+      <c r="M133" s="77"/>
     </row>
     <row r="134" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B134" s="36">
@@ -33583,7 +33583,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A134" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F153" sqref="F153"/>
     </sheetView>
   </sheetViews>
@@ -36440,7 +36440,7 @@
         <v>26</v>
       </c>
       <c r="D127" s="35">
-        <f t="shared" ref="D125:D127" si="12">AVERAGE(D113:D126)</f>
+        <f t="shared" ref="D127" si="12">AVERAGE(D113:D126)</f>
         <v>5.4206381524529855E-2</v>
       </c>
       <c r="E127" s="35">
@@ -36630,14 +36630,14 @@
         <f>SUM(C$2:C135)</f>
         <v>6571.6314000651992</v>
       </c>
-      <c r="G135" s="75" t="s">
+      <c r="G135" s="77" t="s">
         <v>306</v>
       </c>
-      <c r="H135" s="75"/>
-      <c r="I135" s="75"/>
-      <c r="J135" s="75"/>
-      <c r="K135" s="75"/>
-      <c r="L135" s="75"/>
+      <c r="H135" s="77"/>
+      <c r="I135" s="77"/>
+      <c r="J135" s="77"/>
+      <c r="K135" s="77"/>
+      <c r="L135" s="77"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="36">
@@ -36659,10 +36659,10 @@
         <f>SUM(C$2:C136)</f>
         <v>6601.1644467871192</v>
       </c>
-      <c r="G136" s="74" t="s">
+      <c r="G136" s="76" t="s">
         <v>308</v>
       </c>
-      <c r="H136" s="74"/>
+      <c r="H136" s="76"/>
       <c r="I136" t="s">
         <v>309</v>
       </c>
@@ -36949,14 +36949,14 @@
       </c>
     </row>
     <row r="147" spans="7:12" x14ac:dyDescent="0.25">
-      <c r="G147" s="75" t="s">
+      <c r="G147" s="77" t="s">
         <v>323</v>
       </c>
-      <c r="H147" s="75"/>
-      <c r="I147" s="75"/>
-      <c r="J147" s="75"/>
-      <c r="K147" s="75"/>
-      <c r="L147" s="75"/>
+      <c r="H147" s="77"/>
+      <c r="I147" s="77"/>
+      <c r="J147" s="77"/>
+      <c r="K147" s="77"/>
+      <c r="L147" s="77"/>
     </row>
     <row r="148" spans="7:12" x14ac:dyDescent="0.25">
       <c r="G148" s="72" t="s">

--- a/Covid-19.xlsx
+++ b/Covid-19.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="2830" documentId="11_E0DBB201481B1C811047287C66E952F5F4A270EB" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{EFEC6F34-29C4-45E3-A9A1-D056D5164523}"/>
   <bookViews>
-    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16690" yWindow="-350" windowWidth="19420" windowHeight="10420" tabRatio="500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="International" sheetId="1" r:id="rId1"/>
@@ -2463,17 +2463,17 @@
     <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -2542,17 +2542,17 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="168" formatCode="0.00000000%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="0.000%"/>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="168" formatCode="0.00000000%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9087,10 +9087,10 @@
     <tableColumn id="25" xr3:uid="{00000000-0010-0000-0000-000019000000}" name="% Active" totalsRowDxfId="2">
       <calculatedColumnFormula>Table1[[#This Row],[Active]]/Table1[[#This Row],[Cases]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{C5BC61F0-787C-4B13-B094-7F65C2839684}" name="Percent Actively Infected" dataDxfId="20" totalsRowDxfId="1">
+    <tableColumn id="4" xr3:uid="{C5BC61F0-787C-4B13-B094-7F65C2839684}" name="Percent Actively Infected" dataDxfId="22" totalsRowDxfId="1">
       <calculatedColumnFormula>Table1[[#This Row],[Percent Infected]]*Table1[[#This Row],[% Active]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{C200E07E-202A-4F23-AD30-2B5D0B3475C7}" name="1/# Active" dataDxfId="19" totalsRowDxfId="0">
+    <tableColumn id="6" xr3:uid="{C200E07E-202A-4F23-AD30-2B5D0B3475C7}" name="1/# Active" dataDxfId="21" totalsRowDxfId="0">
       <calculatedColumnFormula>1/Table1[[#This Row],[Percent Actively Infected]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -9129,10 +9129,10 @@
     <tableColumn id="20" xr3:uid="{00000000-0010-0000-0100-000014000000}" name="Percent Dead"/>
     <tableColumn id="21" xr3:uid="{00000000-0010-0000-0100-000015000000}" name="Percent Ex(Death)"/>
     <tableColumn id="22" xr3:uid="{00000000-0010-0000-0100-000016000000}" name="Cases per Test"/>
-    <tableColumn id="23" xr3:uid="{9B168E7D-9EBA-4A79-8254-0356C277894C}" name="Percent Active Infected" dataDxfId="22">
+    <tableColumn id="23" xr3:uid="{9B168E7D-9EBA-4A79-8254-0356C277894C}" name="Percent Active Infected" dataDxfId="20">
       <calculatedColumnFormula>Table2[[#This Row],[Percent Infected]]*Table2[[#This Row],[% Active]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{6B6B44B4-3DE3-4BD0-979D-79BA94F42EB9}" name="1/# Active" dataDxfId="21">
+    <tableColumn id="24" xr3:uid="{6B6B44B4-3DE3-4BD0-979D-79BA94F42EB9}" name="1/# Active" dataDxfId="19">
       <calculatedColumnFormula>1/Table2[[#This Row],[Percent Active Infected]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -25653,11 +25653,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AMI91"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="13" ySplit="17" topLeftCell="N59" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="13" ySplit="17" topLeftCell="N18" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="N1" sqref="N1"/>
       <selection pane="bottomLeft" activeCell="A20" sqref="A20"/>
-      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30746,13 +30746,13 @@
       <c r="B61" s="65">
         <v>9308</v>
       </c>
-      <c r="C61" s="83">
+      <c r="C61" s="81">
         <v>15</v>
       </c>
       <c r="D61" s="66">
         <v>472</v>
       </c>
-      <c r="E61" s="84">
+      <c r="E61" s="82">
         <v>2</v>
       </c>
       <c r="F61" s="65">
@@ -34069,14 +34069,14 @@
         <f t="shared" si="9"/>
         <v>1.0370383454624368</v>
       </c>
-      <c r="H147" s="82" t="s">
+      <c r="H147" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="I147" s="82"/>
-      <c r="J147" s="82"/>
-      <c r="K147" s="82"/>
-      <c r="L147" s="82"/>
-      <c r="M147" s="82"/>
+      <c r="I147" s="84"/>
+      <c r="J147" s="84"/>
+      <c r="K147" s="84"/>
+      <c r="L147" s="84"/>
+      <c r="M147" s="84"/>
     </row>
     <row r="148" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B148" s="35">
@@ -34096,10 +34096,10 @@
         <f t="shared" si="9"/>
         <v>1.1397876037845143</v>
       </c>
-      <c r="H148" s="81" t="s">
+      <c r="H148" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="I148" s="81"/>
+      <c r="I148" s="83"/>
       <c r="J148" t="s">
         <v>309</v>
       </c>
@@ -34537,14 +34537,14 @@
         <f>SUM(D$2:D161)</f>
         <v>5617036.9023065362</v>
       </c>
-      <c r="H161" s="82" t="s">
+      <c r="H161" s="84" t="s">
         <v>323</v>
       </c>
-      <c r="I161" s="82"/>
-      <c r="J161" s="82"/>
-      <c r="K161" s="82"/>
-      <c r="L161" s="82"/>
-      <c r="M161" s="82"/>
+      <c r="I161" s="84"/>
+      <c r="J161" s="84"/>
+      <c r="K161" s="84"/>
+      <c r="L161" s="84"/>
+      <c r="M161" s="84"/>
     </row>
     <row r="162" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B162" s="35">
@@ -36963,7 +36963,7 @@
         <v>12.528156753134573</v>
       </c>
       <c r="D268" s="39">
-        <f t="shared" ref="D268:D324" si="15">D267*AVERAGE($F$144:$F$150)</f>
+        <f t="shared" ref="D268:D294" si="15">D267*AVERAGE($F$144:$F$150)</f>
         <v>462.06445959389265</v>
       </c>
       <c r="E268" s="37">
@@ -37211,7 +37211,7 @@
         <v>44182</v>
       </c>
       <c r="C280" s="39">
-        <f t="shared" ref="C280:C324" si="16">$E$150*D266</f>
+        <f t="shared" ref="C280:C294" si="16">$E$150*D266</f>
         <v>7.8154610987663959</v>
       </c>
       <c r="D280" s="39">
@@ -37773,7 +37773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:L328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A135" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M151" sqref="M150:M151"/>
     </sheetView>
   </sheetViews>
@@ -40808,14 +40808,14 @@
         <f t="shared" si="11"/>
         <v>1.4401913875598087</v>
       </c>
-      <c r="G135" s="82" t="s">
+      <c r="G135" s="84" t="s">
         <v>306</v>
       </c>
-      <c r="H135" s="82"/>
-      <c r="I135" s="82"/>
-      <c r="J135" s="82"/>
-      <c r="K135" s="82"/>
-      <c r="L135" s="82"/>
+      <c r="H135" s="84"/>
+      <c r="I135" s="84"/>
+      <c r="J135" s="84"/>
+      <c r="K135" s="84"/>
+      <c r="L135" s="84"/>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A136" s="35">
@@ -40835,10 +40835,10 @@
         <f t="shared" ref="E136:E150" si="12">AVERAGE(C134:C136)/AVERAGE(C123:C136)</f>
         <v>1.4455284552845529</v>
       </c>
-      <c r="G136" s="81" t="s">
+      <c r="G136" s="83" t="s">
         <v>308</v>
       </c>
-      <c r="H136" s="81"/>
+      <c r="H136" s="83"/>
       <c r="I136" t="s">
         <v>309</v>
       </c>
@@ -41267,14 +41267,14 @@
         <f t="shared" si="12"/>
         <v>0.8775811209439528</v>
       </c>
-      <c r="G147" s="82" t="s">
+      <c r="G147" s="84" t="s">
         <v>323</v>
       </c>
-      <c r="H147" s="82"/>
-      <c r="I147" s="82"/>
-      <c r="J147" s="82"/>
-      <c r="K147" s="82"/>
-      <c r="L147" s="82"/>
+      <c r="H147" s="84"/>
+      <c r="I147" s="84"/>
+      <c r="J147" s="84"/>
+      <c r="K147" s="84"/>
+      <c r="L147" s="84"/>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A148" s="35">
@@ -41403,7 +41403,7 @@
         <v>13</v>
       </c>
       <c r="D151" s="34">
-        <f t="shared" ref="D142:D151" si="17">AVERAGE(D137:D150)</f>
+        <f t="shared" ref="D151" si="17">AVERAGE(D137:D150)</f>
         <v>2.6869719736727315E-2</v>
       </c>
       <c r="E151" s="34">
